--- a/Mifos Automation Excels/Client/2615-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-LATE-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2615-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-LATE-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -212,7 +212,7 @@
     <t>adjustrepaymentscheduleDate</t>
   </si>
   <si>
-    <t>2615-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-MIS</t>
+    <t>2615-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-MIS-1st</t>
   </si>
 </sst>
 </file>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
